--- a/CapstoneProject/sorte/datosEstadoProyectos.xlsx
+++ b/CapstoneProject/sorte/datosEstadoProyectos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -465,19 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16.67%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>pendiente</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>16.67%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
